--- a/Data/SeenRx/SeenRx_CSB.xlsx
+++ b/Data/SeenRx/SeenRx_CSB.xlsx
@@ -14,135 +14,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CSB</t>
   </si>
   <si>
     <t>CSB10</t>
   </si>
   <si>
+    <t>CSB11</t>
+  </si>
+  <si>
+    <t>CSB12</t>
+  </si>
+  <si>
+    <t>CSB13</t>
+  </si>
+  <si>
+    <t>CSB14</t>
+  </si>
+  <si>
+    <t>CSB15</t>
+  </si>
+  <si>
+    <t>CSB16</t>
+  </si>
+  <si>
+    <t>CSB17</t>
+  </si>
+  <si>
+    <t>CSB18</t>
+  </si>
+  <si>
+    <t>CSB19</t>
+  </si>
+  <si>
+    <t>CSB20</t>
+  </si>
+  <si>
+    <t>CSB21</t>
+  </si>
+  <si>
+    <t>CSB22</t>
+  </si>
+  <si>
+    <t>CSB23</t>
+  </si>
+  <si>
+    <t>CSB24</t>
+  </si>
+  <si>
+    <t>CSB25</t>
+  </si>
+  <si>
+    <t>CSB26</t>
+  </si>
+  <si>
+    <t>CSB27</t>
+  </si>
+  <si>
+    <t>CSB30</t>
+  </si>
+  <si>
+    <t>CSB31</t>
+  </si>
+  <si>
+    <t>CSB32</t>
+  </si>
+  <si>
+    <t>CSB33</t>
+  </si>
+  <si>
+    <t>CSB34</t>
+  </si>
+  <si>
+    <t>CSB35</t>
+  </si>
+  <si>
     <t>CSB40</t>
   </si>
   <si>
+    <t>CSB41</t>
+  </si>
+  <si>
+    <t>CSB42</t>
+  </si>
+  <si>
+    <t>CSB43</t>
+  </si>
+  <si>
+    <t>CSB44</t>
+  </si>
+  <si>
+    <t>CSB45</t>
+  </si>
+  <si>
     <t>CSB50</t>
   </si>
   <si>
-    <t>CSB30</t>
-  </si>
-  <si>
-    <t>CSB20</t>
+    <t>CSB51</t>
+  </si>
+  <si>
+    <t>CSB52</t>
+  </si>
+  <si>
+    <t>CSB53</t>
+  </si>
+  <si>
+    <t>CSB54</t>
+  </si>
+  <si>
+    <t>CSB55</t>
+  </si>
+  <si>
+    <t>CSB56</t>
+  </si>
+  <si>
+    <t>CSB57</t>
   </si>
   <si>
     <t>CSB60</t>
   </si>
   <si>
-    <t>CSB13</t>
-  </si>
-  <si>
-    <t>CSB23</t>
+    <t>CSB61</t>
+  </si>
+  <si>
+    <t>CSB62</t>
   </si>
   <si>
     <t>CSB63</t>
   </si>
   <si>
-    <t>CSB25</t>
-  </si>
-  <si>
-    <t>CSB35</t>
-  </si>
-  <si>
-    <t>CSB11</t>
-  </si>
-  <si>
     <t>CSB64</t>
   </si>
   <si>
-    <t>CSB16</t>
-  </si>
-  <si>
-    <t>CSB15</t>
-  </si>
-  <si>
-    <t>CSB42</t>
-  </si>
-  <si>
-    <t>CSB51</t>
-  </si>
-  <si>
-    <t>CSB45</t>
-  </si>
-  <si>
-    <t>CSB19</t>
-  </si>
-  <si>
     <t>CSB65</t>
-  </si>
-  <si>
-    <t>CSB56</t>
-  </si>
-  <si>
-    <t>CSB41</t>
-  </si>
-  <si>
-    <t>CSB17</t>
-  </si>
-  <si>
-    <t>CSB12</t>
-  </si>
-  <si>
-    <t>CSB34</t>
-  </si>
-  <si>
-    <t>CSB21</t>
-  </si>
-  <si>
-    <t>CSB44</t>
-  </si>
-  <si>
-    <t>CSB27</t>
-  </si>
-  <si>
-    <t>CSB22</t>
-  </si>
-  <si>
-    <t>CSB31</t>
-  </si>
-  <si>
-    <t>CSB26</t>
-  </si>
-  <si>
-    <t>CSB33</t>
-  </si>
-  <si>
-    <t>CSB52</t>
   </si>
 </sst>
 </file>
@@ -500,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
       <c r="H2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -575,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -607,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -639,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -671,31 +707,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -703,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -721,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -735,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -747,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -767,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -782,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -799,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -846,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -855,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -863,10 +899,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -878,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -895,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -910,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -927,14 +963,14 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -945,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -977,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -991,13 +1027,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1006,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1023,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1032,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1055,31 +1091,31 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1119,16 +1155,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1137,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1151,13 +1187,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1169,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1186,25 +1222,25 @@
         <v>0</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1221,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1233,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1247,13 +1283,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1262,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1282,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1297,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1311,31 +1347,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1343,28 +1379,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1381,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1390,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1407,10 +1443,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1425,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1439,7 +1475,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1454,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1477,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1486,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1503,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1521,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1535,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1567,30 +1603,414 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
     </row>

--- a/Data/SeenRx/SeenRx_CSB.xlsx
+++ b/Data/SeenRx/SeenRx_CSB.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -678,11 +678,11 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,28 +771,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -835,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -902,14 +902,14 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1315,13 +1315,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1379,31 +1379,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,10 +1443,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1571,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,31 +1603,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1763,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>

--- a/Data/SeenRx/SeenRx_CSB.xlsx
+++ b/Data/SeenRx/SeenRx_CSB.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,25 +771,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,10 +1027,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1237,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,13 +1443,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1571,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,25 +1603,25 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1699,7 +1699,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1827,22 +1827,22 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
